--- a/docs/LTA1_C/LTA1_C_19.08.2024_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_19.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731790527.4437318</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731790527.6875372</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790527.4437318.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790527.6875372.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>273.3</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>274.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731790527.7589097</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731790527.9684877</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790527.7589097.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790527.9684877.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>273.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>274.36</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.8600000000000136</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731790528.9173737</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731790533.8320253</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790528.9173737.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790533.8320253.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>273.41</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>270.68</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-2.730000000000018</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731790536.7638178</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731790536.928071</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790536.7638178.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790536.928071.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>273.3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>274.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731790536.9699664</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731790537.1245465</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790536.9699664.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790537.1245465.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>273.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>274.36</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.8600000000000136</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731790537.643158</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731790541.114607</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790537.643158.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790541.114607.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>273.41</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>270.68</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-2.730000000000018</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731790542.4342265</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731790542.6998985</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790542.4342265.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790542.6998985.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>273.79</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>274.75</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.9599999999999795</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731790542.7410238</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731790543.0105402</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790542.7410238.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790543.0105402.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>273.99</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>274.68</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.6899999999999977</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731790543.602469</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731790548.5601852</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790543.602469.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790548.5601852.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>273.8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>270.98</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-2.819999999999993</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-1.03</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731790550.4645092</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731790552.0894015</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790550.4645092.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790552.0894015.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>127.15</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>126.45</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.7000000000000028</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731790553.1155736</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731790556.6457763</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790553.1155736.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790556.6457763.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>126.13</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>125.94</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.1899999999999977</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1111,95 +1193,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731790557.2862961</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731790557.2862961.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731790557.2862961.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>126.24</v>
       </c>
-      <c r="J14" t="n">
-        <v>126.24</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>126.88</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.6400000000000006</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731790558.6887136</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731790560.0597043</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790558.6887136.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790560.0597043.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6260</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6242.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>17.5</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731790560.7395282</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731790564.995919</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790560.7395282.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790564.995919.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6226.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6200</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-26.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731790565.2648218</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731790565.7561088</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790565.2648218.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790565.7561088.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6206.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6195</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>11.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1311,95 +1417,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731790566.017049</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731790566.017049.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731790566.017049.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6186.5</v>
       </c>
-      <c r="J18" t="n">
-        <v>6186.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>6187.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731790567.0920668</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731790568.4837906</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790567.0920668.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790568.4837906.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>491.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>490.55</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.8499999999999659</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731790568.9692545</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731790573.0992432</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790568.9692545.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790573.0992432.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>489.55</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>488.65</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.9000000000000341</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731790573.41371</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731790574.5039337</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790573.41371.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790574.5039337.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>488.7</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>487.7</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731790575.0925298</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731790581.5244782</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790575.0925298.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790581.5244782.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>220.07</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>214.22</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-5.849999999999994</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-2.66</v>
       </c>
     </row>
@@ -1563,95 +1699,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731790582.3639362</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731790582.3639362.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731790582.3639362.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>214.89</v>
       </c>
-      <c r="J23" t="n">
-        <v>214.89</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>215.28</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.3900000000000148</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731790583.171027</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731790584.351139</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790583.171027.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790584.351139.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1014.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1016</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-1.200000000000045</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1659,51 +1807,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731790585.6294012</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731790586.4706194</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790585.6294012.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790586.4706194.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1010.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1016.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>6.199999999999932</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -1711,95 +1865,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731790589.1277592</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731790589.1277592.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731790589.1277592.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1017.8</v>
       </c>
-      <c r="J26" t="n">
-        <v>1017.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1022.8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731790591.0410428</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731790591.8282173</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790591.0410428.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790591.8282173.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>12.172</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>12.15</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.02200000000000024</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1807,51 +1973,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731790592.427865</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731790596.1540546</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790592.427865.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790596.1540546.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>12.177</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>12.171</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1859,95 +2031,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731790596.5384252</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731790596.5384252.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731790596.5384252.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>12.159</v>
       </c>
-      <c r="J29" t="n">
-        <v>12.159</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>12.14</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.01900000000000013</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731790599.4837415</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731790600.7169147</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790599.4837415.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790600.7169147.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>126.48</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>126.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1955,51 +2139,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731790602.2094865</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731790605.5168018</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790602.2094865.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790605.5168018.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>125.72</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>125.18</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.539999999999992</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -2007,95 +2197,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731790605.9515085</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731790605.9515085.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731790605.9515085.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>125.56</v>
       </c>
-      <c r="J32" t="n">
-        <v>125.56</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>126.7</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-1.140000000000001</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731790607.30833</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731790607.4383938</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790607.30833.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790607.4383938.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>160.96</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>161.64</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.6799999999999784</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -2103,51 +2305,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731790607.803175</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731790608.7520814</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790607.803175.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790608.7520814.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>162.28</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>161.5</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.7800000000000011</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2155,95 +2363,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731790608.7832007</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731790608.7832007.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731790608.7832007.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>160.94</v>
       </c>
-      <c r="J35" t="n">
-        <v>160.94</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>158.84</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-2.099999999999994</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731790615.208271</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731790615.3428974</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790615.208271.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790615.3428974.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>49.505</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>49.645</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2251,51 +2471,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731790615.8617222</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731790616.0502853</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790615.8617222.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790616.0502853.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>49.8</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>49.6</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1999999999999957</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -2303,95 +2529,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731790616.441661</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731790616.441661.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731790616.441661.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>49.485</v>
       </c>
-      <c r="J38" t="n">
-        <v>49.485</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>48.65</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.8350000000000009</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-1.69</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731790623.3791943</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731790623.5705082</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790623.3791943.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790623.5705082.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1371</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1376</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>5</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2399,51 +2637,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731790623.7058167</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731790623.808858</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790623.7058167.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790623.808858.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1379.2</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1375.4</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2451,51 +2695,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731790623.9279861</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731790624.2437184</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790623.9279861.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790624.2437184.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1379.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1376.2</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>3.399999999999864</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2503,95 +2753,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731790624.654832</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731790624.654832.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731790624.654832.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1372</v>
       </c>
-      <c r="J42" t="n">
-        <v>1372</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1351.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-20.79999999999995</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731790631.5889728</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731790632.0048053</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790631.5889728.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790632.0048053.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>57.68</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>57.9</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2599,51 +2861,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731790632.1789663</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731790632.8739936</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790632.1789663.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790632.8739936.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>58.03</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>57.9</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2651,51 +2919,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731790634.504094</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731790635.2013106</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790634.504094.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790635.2013106.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>57.75</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>57.93</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2703,51 +2977,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731790636.0876398</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731790637.8677197</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790636.0876398.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790637.8677197.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>57.66</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>57.75</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2755,51 +3035,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731790638.3185313</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731790639.228692</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790638.3185313.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790639.228692.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>57.89</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>57.74</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2807,95 +3093,107 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731790639.531064</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731790639.531064.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731790639.531064.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>57.61</v>
       </c>
-      <c r="J48" t="n">
-        <v>57.61</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>57.64</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731790640.3774538</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731790641.3190105</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790640.3774538.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790641.3190105.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>98.43000000000001</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>97.95</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.480000000000004</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -2903,51 +3201,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731790642.5755641</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731790643.1996238</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790642.5755641.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790643.1996238.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>97.48999999999999</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>98</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.5100000000000051</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -2955,51 +3259,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731790644.4166186</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731790644.8058345</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790644.4166186.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790644.8058345.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>97.61</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>97.95</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -3007,51 +3317,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731790645.8157413</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731790646.011796</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790645.8157413.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790646.011796.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>97.51000000000001</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>97.81</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -3059,95 +3375,107 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731790646.1966724</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731790646.1966724.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731790646.1966724.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>98.05</v>
       </c>
-      <c r="J53" t="n">
-        <v>98.05</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>98.84</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.7900000000000063</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731790648.6124222</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731790649.7630284</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790648.6124222.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790649.7630284.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>54.96</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>54.51</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.4500000000000028</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.8200000000000001</v>
       </c>
     </row>
@@ -3155,51 +3483,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731790650.663818</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731790656.144661</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790650.663818.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790656.144661.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>54.61</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>53.88</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.7299999999999969</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-1.34</v>
       </c>
     </row>
@@ -3207,51 +3541,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731790656.585069</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731790657.5271096</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790656.585069.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790657.5271096.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>151.68</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>151.36</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3259,51 +3599,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731790658.5949605</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731790661.1324062</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790658.5949605.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790661.1324062.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>150.56</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>150.32</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.2400000000000091</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3311,95 +3657,107 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731790661.6940558</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731790661.6940558.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731790661.6940558.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>150.96</v>
       </c>
-      <c r="J58" t="n">
-        <v>150.96</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>150.52</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731790663.6375422</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731790666.313817</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731790663.6375422.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731790666.313817.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>0.3022</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>0.303</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.0007999999999999674</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3407,51 +3765,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731790667.9050906</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731790668.2271562</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731790667.9050906.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731790668.2271562.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>0.3013</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.3031</v>
       </c>
-      <c r="K60" t="n">
-        <v>0.001800000000000024</v>
-      </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
+        <v>0.001799999999999968</v>
+      </c>
+      <c r="N60" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -3459,139 +3823,157 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731790668.2421162</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731790668.2421162.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731790668.2421162.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>0.3031</v>
       </c>
-      <c r="J61" t="n">
-        <v>0.3031</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>0.303</v>
+      </c>
+      <c r="M61" t="n">
+        <v>9.999999999998899e-05</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731790670.297573</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731790670.297573.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731790670.297573.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>19.659</v>
       </c>
-      <c r="J62" t="n">
-        <v>19.659</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>19.21</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.4489999999999981</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-2.28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731790680.1596963</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731790680.499492</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790680.1596963.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790680.499492.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>667.3</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>671.1</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>3.800000000000068</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -3599,51 +3981,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731790681.0504375</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731790682.7721915</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790681.0504375.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790682.7721915.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>668.4</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>668.15</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3651,51 +4039,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731790683.1988647</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731790683.634724</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790683.1988647.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790683.634724.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>670.8</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>666.95</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>3.849999999999909</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -3703,51 +4097,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731790684.0233624</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731790684.9053411</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790684.0233624.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790684.9053411.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>664.35</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>666.85</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>2.5</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -3755,44 +4155,50 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731790687.6522186</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731790687.6522186.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731790687.6522186.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>147.58</v>
       </c>
-      <c r="J67" t="n">
-        <v>147.58</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>143.16</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-4.420000000000016</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-2.99</v>
       </c>
     </row>
   </sheetData>
@@ -3875,19 +4281,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7700000000000031</v>
+        <v>0.8000000000000043</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1283333333333339</v>
+        <v>0.1333333333333341</v>
       </c>
       <c r="E3" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="F3" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -3897,19 +4303,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.63000000000001</v>
+        <v>0.8400000000000034</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.326000000000002</v>
+        <v>0.1680000000000007</v>
       </c>
       <c r="E4" t="n">
-        <v>1.67</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -3919,19 +4325,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.19999999999982</v>
+        <v>-8.600000000000136</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>3.049999999999955</v>
+        <v>-2.150000000000034</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8899999999999999</v>
+        <v>-0.6300000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.22</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="6">
@@ -3963,16 +4369,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03999999999999998</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
@@ -3985,19 +4391,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002599999999999991</v>
+        <v>0.002699999999999925</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0008666666666666637</v>
+        <v>0.0008999999999999749</v>
       </c>
       <c r="E8" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F8" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
@@ -4007,19 +4413,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.45999999999998</v>
+        <v>-0.6400000000000148</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4866666666666599</v>
+        <v>-0.2133333333333383</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8999999999999999</v>
+        <v>-0.4000000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="10">
@@ -4073,19 +4479,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.999999999999886</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>1.666666666666629</v>
+        <v>-3.789561257387201e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4095,19 +4501,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07999999999998408</v>
+        <v>0.5199999999999818</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02666666666666136</v>
+        <v>0.1733333333333273</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04999999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="14">
@@ -4117,19 +4523,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3399999999999963</v>
+        <v>-0.4950000000000045</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1133333333333321</v>
+        <v>-0.1650000000000015</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6799999999999999</v>
+        <v>-1.01</v>
       </c>
       <c r="F14" t="n">
-        <v>0.23</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="15">
@@ -4139,19 +4545,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2599999999999909</v>
+        <v>-1.399999999999991</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.08666666666666363</v>
+        <v>-0.4666666666666638</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.21</v>
+        <v>-1.12</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="16">
@@ -4161,19 +4567,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5100000000000051</v>
+        <v>-0.1299999999999955</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1700000000000017</v>
+        <v>-0.04333333333333182</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3999999999999999</v>
+        <v>-0.1100000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.13</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="17">
@@ -4183,19 +4589,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02800000000000047</v>
+        <v>0.009000000000000341</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00933333333333349</v>
+        <v>0.003000000000000114</v>
       </c>
       <c r="E17" t="n">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18">
@@ -4205,19 +4611,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.849999999999994</v>
+        <v>-6.240000000000009</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.924999999999997</v>
+        <v>-3.120000000000005</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.66</v>
+        <v>-2.84</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.33</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="19">
@@ -4249,19 +4655,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.4489999999999981</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.4489999999999981</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-2.28</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="21">
@@ -4271,19 +4677,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-4.420000000000016</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-4.420000000000016</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-2.99</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="22">
